--- a/Documents/PatternList.xlsx
+++ b/Documents/PatternList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uxli\Documents\GitHub\Pacmio\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5DFAF64-28F5-4040-8988-B6CDE1E70C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52D802C-8424-4923-A02A-FBC34C7FEBBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24930" yWindow="12600" windowWidth="43200" windowHeight="23535" xr2:uid="{AD973EBD-73DC-4804-936C-3344CF5082E1}"/>
+    <workbookView xWindow="11565" yWindow="4605" windowWidth="43200" windowHeight="23535" xr2:uid="{AD973EBD-73DC-4804-936C-3344CF5082E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -87,13 +87,61 @@
   </si>
   <si>
     <t>Triple Bottom</t>
+  </si>
+  <si>
+    <t>Continuation</t>
+  </si>
+  <si>
+    <t>Symmetrical Triangle</t>
+  </si>
+  <si>
+    <t>Similar to Wedge - But Symmetrical</t>
+  </si>
+  <si>
+    <t>Ascending Triangle</t>
+  </si>
+  <si>
+    <t>Descending Triangle</t>
+  </si>
+  <si>
+    <t>Trend Line</t>
+  </si>
+  <si>
+    <t>Divergence</t>
+  </si>
+  <si>
+    <t>Rectangle</t>
+  </si>
+  <si>
+    <t>Price Channel</t>
+  </si>
+  <si>
+    <t>Addon of TLA</t>
+  </si>
+  <si>
+    <t>Cup with Handle</t>
+  </si>
+  <si>
+    <t>Rounding Bottom</t>
+  </si>
+  <si>
+    <t>Flag, Pennant</t>
+  </si>
+  <si>
+    <t>Addon of TLA: Tells you how to use Trend Lines</t>
+  </si>
+  <si>
+    <t>Support and Resistance</t>
+  </si>
+  <si>
+    <t>Gap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,13 +149,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,13 +179,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,21 +501,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C7BC01-7C7B-4514-8063-5ECEB0DBA6F6}">
-  <dimension ref="A2:E22"/>
+  <dimension ref="A2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -465,45 +530,21 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -511,16 +552,19 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -528,16 +572,19 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -545,16 +592,19 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -562,110 +612,201 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>